--- a/Oscars_Data.xlsx
+++ b/Oscars_Data.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allie.ragan/Dropbox/2020 Spring/STAT-696 Applied Natural Language Processing/Project_04232020/nlp_movie_script_project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE01FD-D572-724B-AC98-992748E74445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="132">
   <si>
     <t>Oscar_Yr</t>
   </si>
@@ -309,26 +318,163 @@
   </si>
   <si>
     <t>https://screenplaysandscripts.com/script_files/S/STRAIGHT%20OUTTA%20COMPTON%20Leigh%20Savidge%20and%20Alan%20Wenkus.pdf</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>words, sometimes italcized or underlined</t>
+  </si>
+  <si>
+    <t>music titles are in brackets and bold</t>
+  </si>
+  <si>
+    <t>page numbers are marked (1/42, 2/42, etc.)</t>
+  </si>
+  <si>
+    <t>a wall of text</t>
+  </si>
+  <si>
+    <t>none, script is just dialogue</t>
+  </si>
+  <si>
+    <t>bold and preceded by ext/int</t>
+  </si>
+  <si>
+    <t>bold centered, all caps</t>
+  </si>
+  <si>
+    <t>extraneous details at the beginning "for your consideration", etc.</t>
+  </si>
+  <si>
+    <t>text, sometimes italicized</t>
+  </si>
+  <si>
+    <t>centered, all caps</t>
+  </si>
+  <si>
+    <t>preceded by ext/int in all caps</t>
+  </si>
+  <si>
+    <t>just words</t>
+  </si>
+  <si>
+    <t>very little extraneous text at beginning</t>
+  </si>
+  <si>
+    <t>(V.O.) means voiceover</t>
+  </si>
+  <si>
+    <t>all caps NAME \n text</t>
+  </si>
+  <si>
+    <t>all caps NAME \n text, sometimes words are randomly underlined</t>
+  </si>
+  <si>
+    <t>all caps NAME \n text, sometimes surrounded by quotes when character Dialogue is speaking</t>
+  </si>
+  <si>
+    <t>just words; pattern of character name \n dialogue \n free text not preceeded by character name \n and then character name \n or new setting</t>
+  </si>
+  <si>
+    <t>voiceovers are in quotes but regular dialogue is all caps NAME \n text</t>
+  </si>
+  <si>
+    <t>some visual cues are in all caps for emphasis "POLICE LIGHTS FLASH behind him as he drives" and stage directions i.e. (into his ear piece) are in ()</t>
+  </si>
+  <si>
+    <t>includes dates in red for design department</t>
+  </si>
+  <si>
+    <t>block of text</t>
+  </si>
+  <si>
+    <t>block of  text with some words in all caps for emphasis</t>
+  </si>
+  <si>
+    <t>page numbers sandwiched by CONTINUED</t>
+  </si>
+  <si>
+    <t>bold all caps:</t>
+  </si>
+  <si>
+    <t>(ALL CAPS)</t>
+  </si>
+  <si>
+    <t>none, script is just dialogue and a few visuals</t>
+  </si>
+  <si>
+    <t>some lines are randomly preceded by dashes and includes page numbers</t>
+  </si>
+  <si>
+    <t>preceding extraneous details</t>
+  </si>
+  <si>
+    <t>preceded by setting and number</t>
+  </si>
+  <si>
+    <t>preceded by ext/int in all caps and surrounded by numbers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -336,48 +482,69 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -567,473 +734,589 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="28.43"/>
-    <col customWidth="1" min="3" max="4" width="15.14"/>
-    <col hidden="1" min="5" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="11.71"/>
-    <col customWidth="1" min="8" max="8" width="9.43"/>
-    <col customWidth="1" min="10" max="10" width="30.0"/>
-    <col customWidth="1" min="11" max="11" width="28.0"/>
-    <col customWidth="1" min="12" max="12" width="31.29"/>
-    <col customWidth="1" min="13" max="13" width="27.43"/>
-    <col customWidth="1" min="14" max="14" width="34.71"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" hidden="1"/>
+    <col min="6" max="6" width="26.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" customWidth="1"/>
+    <col min="13" max="13" width="27.5" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>2019.0</v>
+        <v>2018</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4">
+        <v>28</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2019.0</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5">
+        <v>23</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>2019.0</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6">
+        <v>19</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>2019.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1917.0</v>
+        <v>2018</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="J6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="G7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8">
+      <c r="J7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>2018.0</v>
+        <v>2017</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9">
+      <c r="J8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>2018.0</v>
+        <v>2017</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10">
+        <v>28</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>2018.0</v>
+        <v>2017</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11">
+        <v>19</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>2018.0</v>
+        <v>2017</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12">
+      <c r="J11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>2017.0</v>
+        <v>2016</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>2017.0</v>
+        <v>2016</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14">
+      <c r="J13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>2017.0</v>
+        <v>2019</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1041,28 +1324,30 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>2017.0</v>
+        <v>2019</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1070,56 +1355,66 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>2017.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>2019</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1917</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17">
+      <c r="M16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>2016.0</v>
+        <v>2017</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>28</v>
@@ -1130,30 +1425,30 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1161,30 +1456,30 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" s="1">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1192,30 +1487,30 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1223,99 +1518,99 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>2016.0</v>
+        <v>2015</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22">
+        <v>28</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>23</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>23</v>
@@ -1326,30 +1621,30 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G24" s="1">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1357,30 +1652,28 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G25" s="1">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1388,28 +1681,26 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>2015.0</v>
+        <v>2019</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="4" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1418,30 +1709,33 @@
       <c r="N26" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N26">
+    <sortCondition ref="C2:C26"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" ref="F8"/>
-    <hyperlink r:id="rId7" ref="F9"/>
-    <hyperlink r:id="rId8" ref="F10"/>
-    <hyperlink r:id="rId9" ref="F11"/>
-    <hyperlink r:id="rId10" ref="F12"/>
-    <hyperlink r:id="rId11" ref="F13"/>
-    <hyperlink r:id="rId12" ref="F14"/>
-    <hyperlink r:id="rId13" ref="F17"/>
-    <hyperlink r:id="rId14" ref="F18"/>
-    <hyperlink r:id="rId15" ref="F19"/>
-    <hyperlink r:id="rId16" ref="F20"/>
-    <hyperlink r:id="rId17" ref="F21"/>
-    <hyperlink r:id="rId18" ref="F22"/>
-    <hyperlink r:id="rId19" ref="F23"/>
-    <hyperlink r:id="rId20" ref="F24"/>
-    <hyperlink r:id="rId21" ref="F25"/>
-    <hyperlink r:id="rId22" ref="F26"/>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
-  <drawing r:id="rId23"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Oscars_Data.xlsx
+++ b/Oscars_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allie.ragan/Dropbox/2020 Spring/STAT-696 Applied Natural Language Processing/Project_04232020/nlp_movie_script_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE01FD-D572-724B-AC98-992748E74445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF297F2-4DD3-034A-9492-DB8415E422DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="460" windowWidth="19860" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -813,20 +813,20 @@
       <c r="A2" s="1">
         <v>2019</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
+      <c r="B2" s="11">
+        <v>1917</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -834,282 +834,254 @@
       <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="5"/>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>129</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>128</v>
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>110</v>
+      <c r="K6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>111</v>
+      <c r="K8" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>110</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1117,118 +1089,102 @@
       <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>115</v>
+      <c r="J9" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1236,20 +1192,20 @@
       <c r="H12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>104</v>
+      <c r="J12" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1295,28 +1251,28 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1329,50 +1285,54 @@
         <v>2019</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2019</v>
       </c>
-      <c r="B16" s="11">
-        <v>1917</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1380,44 +1340,36 @@
       <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1427,90 +1379,108 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1523,60 +1493,48 @@
         <v>2015</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1584,67 +1542,85 @@
       <c r="H22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="J22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1654,47 +1630,61 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F26" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1702,39 +1692,49 @@
       <c r="H26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="J26" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N26">
-    <sortCondition ref="C2:C26"/>
+    <sortCondition ref="B2:B26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="F13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Oscars_Data.xlsx
+++ b/Oscars_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allie.ragan/Dropbox/2020 Spring/STAT-696 Applied Natural Language Processing/Project_04232020/nlp_movie_script_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF297F2-4DD3-034A-9492-DB8415E422DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF33241-CCA3-8D4F-933A-914FF269F63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13740" yWindow="460" windowWidth="19860" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
   <si>
     <t>Oscar_Yr</t>
   </si>
@@ -107,15 +107,6 @@
   </si>
   <si>
     <t>Nom</t>
-  </si>
-  <si>
-    <t>Once upon a Time...in Hollywood</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino</t>
-  </si>
-  <si>
-    <t>https://www.the-editing-room.com/once-upon-a-time-in-hollywood.html</t>
   </si>
   <si>
     <t>Sam Mendes and Krysty Wilson-Cairns</t>
@@ -744,10 +735,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -820,13 +811,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -835,17 +826,17 @@
         <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -853,19 +844,19 @@
         <v>2016</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -884,19 +875,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -905,19 +896,19 @@
         <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -925,19 +916,19 @@
         <v>2015</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -956,19 +947,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -977,19 +968,19 @@
         <v>23</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -997,19 +988,19 @@
         <v>2017</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1028,19 +1019,19 @@
         <v>2018</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1049,19 +1040,19 @@
         <v>19</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1069,19 +1060,19 @@
         <v>2016</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1090,19 +1081,19 @@
         <v>28</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1110,19 +1101,19 @@
         <v>2015</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1172,19 +1163,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1193,19 +1184,19 @@
         <v>28</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1213,19 +1204,19 @@
         <v>2016</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1234,19 +1225,19 @@
         <v>28</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1254,19 +1245,19 @@
         <v>2016</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1306,16 +1297,16 @@
         <v>28</v>
       </c>
       <c r="J15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="N15" s="5"/>
     </row>
@@ -1324,21 +1315,25 @@
         <v>2019</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1348,114 +1343,114 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>121</v>
+        <v>107</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
@@ -1467,20 +1462,18 @@
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1490,20 +1483,22 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1511,140 +1506,150 @@
       <c r="H21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="J21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>129</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
@@ -1655,86 +1660,44 @@
         <v>116</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="M25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N26">
-    <sortCondition ref="B2:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N25">
+    <sortCondition ref="B2:B25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="F15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F4" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
